--- a/File_B.xlsx
+++ b/File_B.xlsx
@@ -417,7 +417,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>1995</v>
